--- a/biology/Biochimie/Dichroïsme_circulaire/Dichroïsme_circulaire.xlsx
+++ b/biology/Biochimie/Dichroïsme_circulaire/Dichroïsme_circulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dichro%C3%AFsme_circulaire</t>
+          <t>Dichroïsme_circulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On dit qu'un matériau présente un dichroïsme circulaire s'il absorbe différemment la lumière selon que sa polarisation est circulaire droite ou circulaire gauche.
 La polarisation de toute onde lumineuse peut se décomposer en deux parties : l'une circulaire droite (PCD) et l'autre circulaire gauche (PCG). En présence de dichroïsme circulaire, l'une des deux composantes sera absorbée plus rapidement que l'autre. Cette propriété se rencontre plutôt dans les liquides et les solutions du fait de la structure des molécules. On suppose que c'est le cas pour le reste de l'article.
-Le phénomène est découvert par le physicien français Aimé Cotton en 1896 [1].
+Le phénomène est découvert par le physicien français Aimé Cotton en 1896 .
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dichro%C3%AFsme_circulaire</t>
+          <t>Dichroïsme_circulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Théorie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'absorbance du milieu dichroïque présente deux valeurs, associées respectivement aux deux polarisations circulaires : 
           A
@@ -635,7 +649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dichro%C3%AFsme_circulaire</t>
+          <t>Dichroïsme_circulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -653,7 +667,9 @@
           <t>Application aux molécules biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En général le dichroïsme circulaire apparaît dans toute molécule optiquement active. En conséquence, cela apparaît dans les molécules biologiques du fait de leur chiralité. C'est le cas de certains sucres et acides aminés. Leur structure secondaire joue également un rôle sur leur dichroïsme, en particulier les structures en hélice. C'est cette dernière propriété qui est utilisée en biochimie. Ainsi, les structures en hélice alpha et feuillet bêta des protéines et en double hélice des acides nucléiques présentent des dichroïsmes circulaires caractéristiques.
 D'après la mécanique quantique, le dichroïsme circulaire est lié à la dispersion du pouvoir rotatoire, c'est-à-dire au fait que celui-ci dépende de la longueur d'onde. Tandis que ce dernier est mesuré loin des bandes d'absorption des molécules utilisées, le dichroïsme circulaire est mesuré proche de ces bandes. Il est possible, en principe, de passer de l'un à l'autre grâce à des transformations mathématiques.
@@ -670,7 +686,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dichro%C3%AFsme_circulaire</t>
+          <t>Dichroïsme_circulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -688,7 +704,9 @@
           <t>Limitations expérimentales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dichroïsme circulaire a été étudié chez les glucides, mais avec un succès limité du fait des bandes d'absorption de ces molécules qui se trouvent dans une région des ultraviolets (100-200 nm) difficile d'accès.
 Une autre difficulté réside dans le fait que les solutions tampon typiques absorbent souvent la lumière dans la gamme de pH favorable au dichroïsme circulaire. Ainsi, les tampons de phosphates, de sulfates, de carbonates et d'acétates sont souvent inutilisables. On préfère alors utiliser le borate et les sels d'ammonium. Quelques expérimentateurs ont remplacé, pour les mêmes raisons, les ions chlorure par les ions fluorure. Certains ont simplement travaillé avec de l'eau. Mais il est souvent nécessaire d'utiliser des cuves très fines pour limiter ces absorptions parasites. Des longueurs de 0.1 mm ne sont pas rares.
